--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ceacam1-Cd209e.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ceacam1-Cd209e.xlsx
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.54238433333333</v>
+        <v>29.243344</v>
       </c>
       <c r="H2">
-        <v>91.62715299999999</v>
+        <v>87.73003199999999</v>
       </c>
       <c r="I2">
-        <v>0.3007947574010637</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="J2">
-        <v>0.3007947574010637</v>
+        <v>0.2495160022719401</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08871800000000001</v>
+        <v>0.02226066666666666</v>
       </c>
       <c r="N2">
-        <v>0.266154</v>
+        <v>0.06678199999999999</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.709659253284666</v>
+        <v>0.6509763330026666</v>
       </c>
       <c r="R2">
-        <v>24.386933279562</v>
+        <v>5.858786997023999</v>
       </c>
       <c r="S2">
-        <v>0.3007947574010637</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="T2">
-        <v>0.3007947574010637</v>
+        <v>0.2495160022719401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.55382266666667</v>
+        <v>39.69520733333334</v>
       </c>
       <c r="H3">
-        <v>64.661468</v>
+        <v>119.085622</v>
       </c>
       <c r="I3">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="J3">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08871800000000001</v>
+        <v>0.02226066666666666</v>
       </c>
       <c r="N3">
-        <v>0.266154</v>
+        <v>0.06678199999999999</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.912212039341333</v>
+        <v>0.8836417787115556</v>
       </c>
       <c r="R3">
-        <v>17.209908354072</v>
+        <v>7.952776008403999</v>
       </c>
       <c r="S3">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="T3">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5267796666666668</v>
+        <v>0.280468</v>
       </c>
       <c r="H4">
-        <v>1.580339</v>
+        <v>0.8414039999999999</v>
       </c>
       <c r="I4">
-        <v>0.005187956523285622</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="J4">
-        <v>0.00518795652328562</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08871800000000001</v>
+        <v>0.02226066666666666</v>
       </c>
       <c r="N4">
-        <v>0.266154</v>
+        <v>0.06678199999999999</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.04673483846733335</v>
+        <v>0.006243404658666666</v>
       </c>
       <c r="R4">
-        <v>0.4206135462060001</v>
+        <v>0.05619064192799999</v>
       </c>
       <c r="S4">
-        <v>0.005187956523285622</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="T4">
-        <v>0.00518795652328562</v>
+        <v>0.00239306606403175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.786202</v>
+        <v>38.55311033333334</v>
       </c>
       <c r="H5">
-        <v>113.358606</v>
+        <v>115.659331</v>
       </c>
       <c r="I5">
-        <v>0.3721350415754244</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="J5">
-        <v>0.3721350415754243</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.08871800000000001</v>
+        <v>0.02226066666666666</v>
       </c>
       <c r="N5">
-        <v>0.266154</v>
+        <v>0.06678199999999999</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>3.352316269036001</v>
+        <v>0.8582179380935555</v>
       </c>
       <c r="R5">
-        <v>30.170846421324</v>
+        <v>7.723961442842</v>
       </c>
       <c r="S5">
-        <v>0.3721350415754244</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="T5">
-        <v>0.3721350415754243</v>
+        <v>0.3289506824363984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.129763</v>
+        <v>9.428145000000001</v>
       </c>
       <c r="H6">
-        <v>33.389289</v>
+        <v>28.284435</v>
       </c>
       <c r="I6">
-        <v>0.1096107731793108</v>
+        <v>0.08044473468014399</v>
       </c>
       <c r="J6">
-        <v>0.1096107731793108</v>
+        <v>0.08044473468014399</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08871800000000001</v>
+        <v>0.02226066666666666</v>
       </c>
       <c r="N6">
-        <v>0.266154</v>
+        <v>0.06678199999999999</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.9874103138339999</v>
+        <v>0.20987679313</v>
       </c>
       <c r="R6">
-        <v>8.886692824506</v>
+        <v>1.88889113817</v>
       </c>
       <c r="S6">
-        <v>0.1096107731793108</v>
+        <v>0.08044473468014399</v>
       </c>
       <c r="T6">
-        <v>0.1096107731793108</v>
+        <v>0.08044473468014399</v>
       </c>
     </row>
   </sheetData>
